--- a/BaseAnova.xlsx
+++ b/BaseAnova.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t xml:space="preserve">mpg</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t xml:space="preserve">carb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
   </si>
 </sst>
 </file>
@@ -161,7 +164,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1334,1166 +1337,1265 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>1000000000000</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="C2" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="D2" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="E2" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="F2" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="G2" s="1" t="n">
         <v>2.62</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>16.46</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="L2" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="C3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="D3" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="E3" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="F3" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="G3" s="1" t="n">
         <v>2.875</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="H3" s="1" t="n">
         <v>17.02</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="L3" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>22.8</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="C4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="E4" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="F4" s="1" t="n">
         <v>3.85</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="G4" s="1" t="n">
         <v>2.32</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="H4" s="1" t="n">
         <v>18.61</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>21.4</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="C5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="D5" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="E5" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="F5" s="1" t="n">
         <v>3.08</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="G5" s="1" t="n">
         <v>3.215</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="H5" s="1" t="n">
         <v>19.44</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>18.7</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="C6" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="E6" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="F6" s="1" t="n">
         <v>3.15</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="G6" s="1" t="n">
         <v>3.44</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="H6" s="1" t="n">
         <v>17.02</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>18.1</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="C7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="D7" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="E7" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="F7" s="1" t="n">
         <v>2.76</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="G7" s="1" t="n">
         <v>3.46</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="H7" s="1" t="n">
         <v>20.22</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>14.3</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="C8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="E8" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="F8" s="1" t="n">
         <v>3.21</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="G8" s="1" t="n">
         <v>3.57</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="H8" s="1" t="n">
         <v>15.84</v>
       </c>
-      <c r="H8" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>24.4</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="C9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>146.7</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="E9" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="F9" s="1" t="n">
         <v>3.69</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="G9" s="1" t="n">
         <v>3.19</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="H9" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H9" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>22.8</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="C10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>140.8</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="E10" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="F10" s="1" t="n">
         <v>3.92</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="G10" s="1" t="n">
         <v>3.15</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="H10" s="1" t="n">
         <v>22.9</v>
       </c>
-      <c r="H10" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>19.2</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="C11" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="D11" s="1" t="n">
         <v>167.6</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="E11" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="F11" s="1" t="n">
         <v>3.92</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="G11" s="1" t="n">
         <v>3.44</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="H11" s="1" t="n">
         <v>18.3</v>
       </c>
-      <c r="H11" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="L11" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>17.8</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="C12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="D12" s="1" t="n">
         <v>167.6</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="E12" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="F12" s="1" t="n">
         <v>3.92</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="G12" s="1" t="n">
         <v>3.44</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="H12" s="1" t="n">
         <v>18.9</v>
       </c>
-      <c r="H12" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="L12" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="n">
         <v>16.4</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="C13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>275.8</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="E13" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="F13" s="1" t="n">
         <v>3.07</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="G13" s="1" t="n">
         <v>4.07</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="H13" s="1" t="n">
         <v>17.4</v>
       </c>
-      <c r="H13" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="L13" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>17.3</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="C14" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>275.8</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="E14" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="F14" s="1" t="n">
         <v>3.07</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="G14" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="H14" s="1" t="n">
         <v>17.6</v>
       </c>
-      <c r="H14" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="L14" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="n">
         <v>15.2</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="C15" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <v>275.8</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="E15" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="F15" s="1" t="n">
         <v>3.07</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="G15" s="1" t="n">
         <v>3.78</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="H15" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H15" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="L15" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="n">
         <v>10.4</v>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="C16" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>472</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="E16" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="F16" s="1" t="n">
         <v>2.93</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="G16" s="1" t="n">
         <v>5.25</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="H16" s="1" t="n">
         <v>17.98</v>
       </c>
-      <c r="H16" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>10.4</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="C17" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="n">
         <v>460</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="E17" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="E17" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="F17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="n">
         <v>5.424</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="H17" s="1" t="n">
         <v>17.82</v>
       </c>
-      <c r="H17" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="n">
         <v>14.7</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="C18" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="n">
         <v>440</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="E18" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="F18" s="1" t="n">
         <v>3.23</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="G18" s="1" t="n">
         <v>5.345</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="H18" s="1" t="n">
         <v>17.42</v>
       </c>
-      <c r="H18" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="n">
         <v>32.4</v>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="C19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="n">
         <v>78.7</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="E19" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="F19" s="1" t="n">
         <v>4.08</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="G19" s="1" t="n">
         <v>2.2</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="H19" s="1" t="n">
         <v>19.47</v>
       </c>
-      <c r="H19" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="n">
         <v>30.4</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="C20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="n">
         <v>75.7</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="E20" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="F20" s="1" t="n">
         <v>4.93</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="G20" s="1" t="n">
         <v>1.615</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="H20" s="1" t="n">
         <v>18.52</v>
       </c>
-      <c r="H20" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="n">
         <v>33.9</v>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="C21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="n">
         <v>71.1</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="E21" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="F21" s="1" t="n">
         <v>4.22</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="G21" s="1" t="n">
         <v>1.835</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="H21" s="1" t="n">
         <v>19.9</v>
       </c>
-      <c r="H21" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="n">
         <v>21.5</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="C22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="n">
         <v>120.1</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="E22" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="F22" s="1" t="n">
         <v>3.7</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="G22" s="1" t="n">
         <v>2.465</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="H22" s="1" t="n">
         <v>20.01</v>
       </c>
-      <c r="H22" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="n">
         <v>15.5</v>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="C23" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="E23" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="F23" s="1" t="n">
         <v>2.76</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="G23" s="1" t="n">
         <v>3.52</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="H23" s="1" t="n">
         <v>16.87</v>
       </c>
-      <c r="H23" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="n">
         <v>15.2</v>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="C24" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="E24" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="F24" s="1" t="n">
         <v>3.15</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="G24" s="1" t="n">
         <v>3.435</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="H24" s="1" t="n">
         <v>17.3</v>
       </c>
-      <c r="H24" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="n">
         <v>13.3</v>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="C25" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="E25" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="F25" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="G25" s="1" t="n">
         <v>3.84</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="H25" s="1" t="n">
         <v>15.41</v>
       </c>
-      <c r="H25" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="n">
         <v>19.2</v>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="C26" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="E26" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="F26" s="1" t="n">
         <v>3.08</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="G26" s="1" t="n">
         <v>3.845</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="H26" s="1" t="n">
         <v>17.05</v>
       </c>
-      <c r="H26" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L26" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="n">
         <v>27.3</v>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="C27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="E27" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="F27" s="1" t="n">
         <v>4.08</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="G27" s="1" t="n">
         <v>1.935</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="H27" s="1" t="n">
         <v>18.9</v>
       </c>
-      <c r="H27" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="C28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="n">
         <v>120.3</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="E28" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="F28" s="1" t="n">
         <v>4.43</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="G28" s="1" t="n">
         <v>2.14</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="H28" s="1" t="n">
         <v>16.7</v>
       </c>
-      <c r="H28" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K28" s="1" t="n">
+      <c r="L28" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="n">
         <v>30.4</v>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="C29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="n">
         <v>95.1</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="E29" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="F29" s="1" t="n">
         <v>3.77</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="G29" s="1" t="n">
         <v>1.513</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="H29" s="1" t="n">
         <v>16.9</v>
       </c>
-      <c r="H29" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K29" s="1" t="n">
+      <c r="L29" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="n">
         <v>15.8</v>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="C30" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="E30" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="F30" s="1" t="n">
         <v>4.22</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="G30" s="1" t="n">
         <v>3.17</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="H30" s="1" t="n">
         <v>14.5</v>
       </c>
-      <c r="H30" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K30" s="1" t="n">
+      <c r="L30" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="n">
         <v>19.7</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="C31" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="D31" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="E31" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="F31" s="1" t="n">
         <v>3.62</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="G31" s="1" t="n">
         <v>2.77</v>
       </c>
-      <c r="G31" s="1" t="n">
+      <c r="H31" s="1" t="n">
         <v>15.5</v>
       </c>
-      <c r="H31" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K31" s="1" t="n">
+      <c r="L31" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="C32" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="E32" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="F32" s="1" t="n">
         <v>3.54</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="G32" s="1" t="n">
         <v>3.57</v>
       </c>
-      <c r="G32" s="1" t="n">
+      <c r="H32" s="1" t="n">
         <v>14.6</v>
       </c>
-      <c r="H32" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K32" s="1" t="n">
+      <c r="L32" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="n">
         <v>21.4</v>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="C33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="E33" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="F33" s="1" t="n">
         <v>4.11</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="G33" s="1" t="n">
         <v>2.78</v>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="H33" s="1" t="n">
         <v>18.6</v>
       </c>
-      <c r="H33" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" s="1" t="n">
         <v>2</v>
       </c>
     </row>
